--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_448__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_448__Reeval_LHS_Modell_1.2.xlsx
@@ -5879,43 +5879,43 @@
                   <c:v>75.23434448242188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.73841857910156</c:v>
+                  <c:v>32.73842620849609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.22574615478516</c:v>
+                  <c:v>62.22575759887695</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>61.55523681640625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.22307968139648</c:v>
+                  <c:v>62.22306823730469</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>62.21961212158203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.22525405883789</c:v>
+                  <c:v>62.2252311706543</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>62.2266731262207</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.22576904296875</c:v>
+                  <c:v>62.22575759887695</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.37331390380859</c:v>
+                  <c:v>22.37332916259766</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>61.21350479125977</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.15234375</c:v>
+                  <c:v>61.1523551940918</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>62.14656066894531</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73.56257629394531</c:v>
+                  <c:v>73.56259155273438</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>62.72460556030273</c:v>
@@ -5924,7 +5924,7 @@
                   <c:v>61.16092300415039</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.22332382202148</c:v>
+                  <c:v>62.22331237792969</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>63.58429336547852</c:v>
@@ -5933,13 +5933,13 @@
                   <c:v>62.22446441650391</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.05726623535156</c:v>
+                  <c:v>62.05728912353516</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>62.22565078735352</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.8043098449707</c:v>
+                  <c:v>61.80429840087891</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>62.22578048706055</c:v>
@@ -5966,19 +5966,19 @@
                   <c:v>61.38736724853516</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>62.21943664550781</c:v>
+                  <c:v>62.21942520141602</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>60.83210754394531</c:v>
+                  <c:v>60.83209609985352</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.22575759887695</c:v>
+                  <c:v>62.22574615478516</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>62.21183013916016</c:v>
+                  <c:v>62.21184539794922</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>62.19563674926758</c:v>
+                  <c:v>62.19564819335938</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>60.22947692871094</c:v>
@@ -5993,10 +5993,10 @@
                   <c:v>62.22270202636719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>35.21844482421875</c:v>
+                  <c:v>35.21845245361328</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>52.7546272277832</c:v>
+                  <c:v>52.75461578369141</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>112.0273132324219</c:v>
@@ -6011,7 +6011,7 @@
                   <c:v>44.23274612426758</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>60.18754577636719</c:v>
+                  <c:v>60.18755722045898</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>62.22117614746094</c:v>
@@ -6029,28 +6029,28 @@
                   <c:v>61.98066711425781</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>61.70755386352539</c:v>
+                  <c:v>61.70756912231445</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>61.63865280151367</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>32.25411224365234</c:v>
+                  <c:v>32.25410842895508</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>62.22553634643555</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>68.091552734375</c:v>
+                  <c:v>68.09153747558594</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>62.23006057739258</c:v>
+                  <c:v>62.23007202148438</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>62.2206916809082</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>29.27663612365723</c:v>
+                  <c:v>29.27664184570312</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>60.41994857788086</c:v>
@@ -6068,7 +6068,7 @@
                   <c:v>76.32257080078125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>62.82238388061523</c:v>
+                  <c:v>62.82239532470703</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>62.22576904296875</c:v>
@@ -6077,7 +6077,7 @@
                   <c:v>69.48079681396484</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.15821838378906</c:v>
+                  <c:v>62.15822982788086</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>62.22578048706055</c:v>
@@ -6086,19 +6086,19 @@
                   <c:v>62.22726058959961</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>62.66344451904297</c:v>
+                  <c:v>62.66347122192383</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>62.11546325683594</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>61.30731201171875</c:v>
+                  <c:v>61.30732345581055</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>62.22576904296875</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>62.22467803955078</c:v>
+                  <c:v>62.22468948364258</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>60.24589538574219</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>28.99545669555664</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>62.09236907958984</c:v>
+                  <c:v>62.09235763549805</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>62.31810760498047</c:v>
@@ -6119,7 +6119,7 @@
                   <c:v>62.53915405273438</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>61.9195671081543</c:v>
+                  <c:v>61.91954040527344</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>61.6122932434082</c:v>
@@ -6128,10 +6128,10 @@
                   <c:v>62.22567749023438</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>112.1786346435547</c:v>
+                  <c:v>112.1786117553711</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>25.27839851379395</c:v>
+                  <c:v>25.27840614318848</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>62.14474868774414</c:v>
@@ -6146,16 +6146,16 @@
                   <c:v>62.22554779052734</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>60.80419921875</c:v>
+                  <c:v>60.8042106628418</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>62.19689559936523</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>62.22528839111328</c:v>
+                  <c:v>62.22527694702148</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>62.1223030090332</c:v>
+                  <c:v>62.122314453125</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>62.02671051025391</c:v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.73841857910156</v>
+        <v>32.73842620849609</v>
       </c>
       <c r="G4">
         <v>138</v>
@@ -6955,7 +6955,7 @@
         <v>88.07989999999999</v>
       </c>
       <c r="F5">
-        <v>62.22574615478516</v>
+        <v>62.22575759887695</v>
       </c>
       <c r="G5">
         <v>138</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>62.22307968139648</v>
+        <v>62.22306823730469</v>
       </c>
       <c r="G7">
         <v>138</v>
@@ -7071,7 +7071,7 @@
         <v>70.2401</v>
       </c>
       <c r="F9">
-        <v>62.22525405883789</v>
+        <v>62.2252311706543</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>62.22576904296875</v>
+        <v>62.22575759887695</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>96.3742</v>
       </c>
       <c r="F12">
-        <v>22.37331390380859</v>
+        <v>22.37332916259766</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>96.46769999999999</v>
       </c>
       <c r="F14">
-        <v>61.15234375</v>
+        <v>61.1523551940918</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>73.56257629394531</v>
+        <v>73.56259155273438</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>53.0182</v>
       </c>
       <c r="F19">
-        <v>62.22332382202148</v>
+        <v>62.22331237792969</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>62.05726623535156</v>
+        <v>62.05728912353516</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>48.1493</v>
       </c>
       <c r="F24">
-        <v>61.8043098449707</v>
+        <v>61.80429840087891</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>91.72880000000001</v>
       </c>
       <c r="F33">
-        <v>62.21943664550781</v>
+        <v>62.21942520141602</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>60.83210754394531</v>
+        <v>60.83209609985352</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>93.7411</v>
       </c>
       <c r="F35">
-        <v>62.22575759887695</v>
+        <v>62.22574615478516</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>62.21183013916016</v>
+        <v>62.21184539794922</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>62.19563674926758</v>
+        <v>62.19564819335938</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>35.21844482421875</v>
+        <v>35.21845245361328</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>88.684</v>
       </c>
       <c r="F43">
-        <v>52.7546272277832</v>
+        <v>52.75461578369141</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>60.18754577636719</v>
+        <v>60.18755722045898</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>61.70755386352539</v>
+        <v>61.70756912231445</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>63.5626</v>
       </c>
       <c r="F56">
-        <v>32.25411224365234</v>
+        <v>32.25410842895508</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>68.091552734375</v>
+        <v>68.09153747558594</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>98.1859</v>
       </c>
       <c r="F59">
-        <v>62.23006057739258</v>
+        <v>62.23007202148438</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>94.23860000000001</v>
       </c>
       <c r="F61">
-        <v>29.27663612365723</v>
+        <v>29.27664184570312</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>62.82238388061523</v>
+        <v>62.82239532470703</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>97.982</v>
       </c>
       <c r="F70">
-        <v>62.15821838378906</v>
+        <v>62.15822982788086</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>62.66344451904297</v>
+        <v>62.66347122192383</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>89.6328</v>
       </c>
       <c r="F75">
-        <v>61.30731201171875</v>
+        <v>61.30732345581055</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>84.90900000000001</v>
       </c>
       <c r="F77">
-        <v>62.22467803955078</v>
+        <v>62.22468948364258</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>62.09236907958984</v>
+        <v>62.09235763549805</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>36.4333</v>
       </c>
       <c r="F84">
-        <v>61.9195671081543</v>
+        <v>61.91954040527344</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>92.4842</v>
       </c>
       <c r="F87">
-        <v>112.1786346435547</v>
+        <v>112.1786117553711</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>25.27839851379395</v>
+        <v>25.27840614318848</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>97.4933</v>
       </c>
       <c r="F93">
-        <v>60.80419921875</v>
+        <v>60.8042106628418</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>62.22528839111328</v>
+        <v>62.22527694702148</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>40.7372</v>
       </c>
       <c r="F96">
-        <v>62.1223030090332</v>
+        <v>62.122314453125</v>
       </c>
     </row>
     <row r="97" spans="1:6">
